--- a/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
+++ b/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -210,10 +210,22 @@
     <t xml:space="preserve">53a (ii). Eneo la maji lililo karibu (&lt; 50m) na kaya yako ni la aina gani?</t>
   </si>
   <si>
-    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
+    <t xml:space="preserve">Household Identification {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utambulisho wa Kaya {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Water Body Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maelezo kuhusu maeneo ya maji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalhes do corpo de agua</t>
   </si>
   <si>
     <t xml:space="preserve">Permanent water (all year)</t>
@@ -426,7 +438,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -467,17 +479,17 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
   </cols>
   <sheetData>
@@ -574,7 +586,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
@@ -647,7 +659,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
@@ -801,7 +813,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -856,14 +868,14 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,20 +920,32 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,13 +953,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,13 +967,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,13 +981,13 @@
         <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
+++ b/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
@@ -213,19 +213,19 @@
     <t xml:space="preserve">Household Identification {{data.hh_id}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Utambulisho wa Kaya {{data.hh_id}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
+    <t xml:space="preserve">Identificação do agregado: {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utambulisho wa Kaya: {{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Water Body Details</t>
   </si>
   <si>
+    <t xml:space="preserve">Detalhes do corpo de agua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maelezo kuhusu maeneo ya maji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalhes do corpo de agua</t>
   </si>
   <si>
     <t xml:space="preserve">Permanent water (all year)</t>
@@ -262,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,6 +284,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,12 +335,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,7 +449,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -480,87 +491,88 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="11.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -586,11 +598,11 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,9 +671,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
@@ -813,7 +825,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -866,127 +878,129 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="37.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="11.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
     </row>
